--- a/file/TGT-321-TaoyuanSightseeing.xlsx
+++ b/file/TGT-321-TaoyuanSightseeing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Taoyuan/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB6E407-4994-5940-BF05-6C83224A89DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27392BE1-BE4F-7A4C-8A30-01BEB9732A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1820" windowWidth="42180" windowHeight="18520" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="10740" yWindow="6080" windowWidth="42180" windowHeight="18520" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="173">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,6 +659,40 @@
   <si>
     <t>成人票 $550, 學生票 $400, 孩童票 $250 博愛票 $250</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小人國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於桃園龍潭的小人國主題樂園，是亞洲第一座以迷你微縮建築模型為主題的遊樂園。園內擁有上百座的世界知名景觀建築，讓想要周遊列國的您，也能輕輕鬆鬆當個環遊世界的SUPER行腳者！精緻的迷你建築，以完美比例1／25細膩打造，從台灣北到台灣南、中國、亞洲、歐洲及美洲等各國，栩栩如生彷彿身歷其境！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-471-7211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龍潭區高原里高原路891號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">平日：09：00~16：30 ，假日：09：30~17：00 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人票799元/ 學生票699元/ 學童票599元/ 幼童票499元/ 博愛票399元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGT-3211-Sightseeing-19.jpg</t>
+  </si>
+  <si>
+    <t>http://www.woc.com.tw/</t>
   </si>
 </sst>
 </file>
@@ -1056,13 +1090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1782,8 +1816,43 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="K20" s="2"/>
+    <row r="20" spans="1:12" ht="80">
+      <c r="A20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="K21" s="2"/>
@@ -1814,9 +1883,6 @@
     </row>
     <row r="30" spans="1:12">
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="K31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
